--- a/test_api.xlsx
+++ b/test_api.xlsx
@@ -1542,7 +1542,7 @@
       </c>
       <c r="H5" s="1" t="inlineStr">
         <is>
-          <t>failed</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
